--- a/admin/mappings/Handshrift_Mapping.xlsx
+++ b/admin/mappings/Handshrift_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/Dropbox/TW Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FADF50-6169-D94B-AE18-41A49E4D7CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFB21EA-654B-F04C-A4B5-830F042CBAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="8" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
   </bookViews>
   <sheets>
     <sheet name="LHBR" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="180">
   <si>
     <t>Source field</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>Genre type of carried E73 info object/sds</t>
+  </si>
+  <si>
+    <t>lhformaths.lhformathsafm</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -828,6 +837,8 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1615,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271091A6-7458-1F42-A1CA-2DF083598C03}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1691,19 +1702,20 @@
       <c r="A3" s="11"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="11"/>
@@ -1733,7 +1745,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1892,18 +1904,18 @@
       <c r="B7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="16" t="s">
@@ -3210,7 +3222,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3673,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA7C14F-66BE-9E44-A6DF-E03B888E604F}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
